--- a/2016-01-29/riddler.xlsx
+++ b/2016-01-29/riddler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/GitHub/fivethirtyeight-riddler/2016-1-29/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/GitHub/fivethirtyeight-riddler/2016-01-29/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D7ECCAF-16B0-7140-AADA-84BFFEAADB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DED137-88E3-F846-AB30-AF0F325C031D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{48C97B43-E8DE-BA47-87A3-04B329889A52}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,6 +962,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="C18:E18"/>
@@ -970,11 +975,6 @@
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="O16:Q16"/>
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="O24:Q24"/>
   </mergeCells>
